--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -635,7 +635,7 @@
   <dimension ref="A1:Z28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="22.5" customHeight="1"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="77">
   <si>
     <t>Catégorie</t>
   </si>
@@ -39,39 +39,6 @@
     <t>Référence</t>
   </si>
   <si>
-    <t>contenu invisible</t>
-  </si>
-  <si>
-    <t>couleur</t>
-  </si>
-  <si>
-    <t>visibilité</t>
-  </si>
-  <si>
-    <t>focus</t>
-  </si>
-  <si>
-    <t>equivalent textuel</t>
-  </si>
-  <si>
-    <t>gestion des etats</t>
-  </si>
-  <si>
-    <t>titre</t>
-  </si>
-  <si>
-    <t>lien change de couleurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pas de alt ou title </t>
-  </si>
-  <si>
-    <t>mauvaise hierarchie h1 h2 h3</t>
-  </si>
-  <si>
-    <t>h3 contient mots cles alors que h2 non</t>
-  </si>
-  <si>
     <t>SEO</t>
   </si>
   <si>
@@ -180,15 +147,6 @@
     <t>Le contenu est invisible pour l'utilisateur</t>
   </si>
   <si>
-    <t>Les liens changent seulement de couleur au survol et donc peuvent poser des problèmes d'accessibilté pour les mal voyants ou les personnes atteints de daltonisme</t>
-  </si>
-  <si>
-    <t>Certains texte sont cachés en dessous d'une image ou sont hors fenêtre</t>
-  </si>
-  <si>
-    <t>Les attribut "alt" ne correspondent pas aux images ce qui pose un problème pour les personnes ne pouvant pas voir celles-ci</t>
-  </si>
-  <si>
     <t>Mettre un titre correspondant au nom de la société pour les résultats de recherche Google</t>
   </si>
   <si>
@@ -241,18 +199,6 @@
   </si>
   <si>
     <t>Utiliser visibility="hidden" si un contenu veut être caché</t>
-  </si>
-  <si>
-    <t>L’information véhiculée par la couleur doit toujours être disponible via un autre moyen</t>
-  </si>
-  <si>
-    <t>Il faut utiliser l’attribut hidden ou les propriétés de style visibility ou display si un contenu veut être caché</t>
-  </si>
-  <si>
-    <t>Les attributs alt doivent être renseignés pour chaque image pour permettre aux personnes ne pouvant pas voir l'image d'en avoir l'équivalent textuel</t>
-  </si>
-  <si>
-    <t>Les titres h2 sont plus important que les titres h3 dans la hiérarchie</t>
   </si>
   <si>
     <t>OUI</t>
@@ -635,7 +581,7 @@
   <dimension ref="A1:Z28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A23" sqref="A23:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="22.5" customHeight="1"/>
@@ -691,421 +637,385 @@
     </row>
     <row r="2" spans="1:26" s="3" customFormat="1" ht="22.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="3" customFormat="1" ht="22.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:26" s="3" customFormat="1" ht="22.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:26" s="3" customFormat="1" ht="22.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="3" customFormat="1" ht="22.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:26" s="3" customFormat="1" ht="22.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="8" customFormat="1" ht="22.5" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="10" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:26" s="3" customFormat="1" ht="22.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="22.5" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="22.5" customHeight="1">
       <c r="A11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="C11" s="4" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="22.5" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="22.5" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="3" customFormat="1" ht="22.5" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:26" s="3" customFormat="1" ht="22.5" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="22.5" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="22.5" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F19" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="22.5" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="22.5" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A25" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="A25" s="4"/>
     </row>
     <row r="26" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>76</v>
-      </c>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A27" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A27" s="4"/>
     </row>
     <row r="28" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="86">
   <si>
     <t>Catégorie</t>
   </si>
@@ -93,12 +93,6 @@
     <t>Bouton "Toggle navigation"</t>
   </si>
   <si>
-    <t>h1 et texte sous une image (Contenu invisible)</t>
-  </si>
-  <si>
-    <t>Liens vers les réseaux page 2 en 0px (Contenu invisible)</t>
-  </si>
-  <si>
     <t>Les keywords sont trop vagues et répétés</t>
   </si>
   <si>
@@ -250,6 +244,39 @@
   </si>
   <si>
     <t>https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/6940878-decouvrez-les-exigences-en-matiere-daccessibilite</t>
+  </si>
+  <si>
+    <t>Trop faible contraste</t>
+  </si>
+  <si>
+    <t>Taille des liens trop étroite pour les écrans tactiles</t>
+  </si>
+  <si>
+    <t>Pas de correspondance textuelle</t>
+  </si>
+  <si>
+    <t>Le contraste entre le texte et le fond est trop faible pour être disserné par certaines personnes</t>
+  </si>
+  <si>
+    <t>La taille et/ou l'espacement entre deux liens est trop étroit pour une bonne sélection d'un de ces liens avec les doigts</t>
+  </si>
+  <si>
+    <t>Certains éléments ne possèdent pas de correspondance textuelle permettant aux assistants vocaux de lire le contenu de ces éléments</t>
+  </si>
+  <si>
+    <t>Changer les couleurs du texte et/ou du fond</t>
+  </si>
+  <si>
+    <t>Augmenter la taille de la div où se trouve les liens ou les marges entre ces derniers</t>
+  </si>
+  <si>
+    <t>Bien renseigner l'attribut alt des images et les éléments label des formulaires</t>
+  </si>
+  <si>
+    <t>Contenu invisible (Liens vers les réseaux page 2 en 0px)</t>
+  </si>
+  <si>
+    <t>Contenu invisible (h1 et texte sous une image)</t>
   </si>
 </sst>
 </file>
@@ -580,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:D29"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="22.5" customHeight="1"/>
@@ -643,16 +670,16 @@
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="3" customFormat="1" ht="22.5" customHeight="1">
@@ -663,16 +690,16 @@
         <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:26" s="3" customFormat="1" ht="22.5" customHeight="1">
@@ -683,16 +710,16 @@
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:26" s="3" customFormat="1" ht="22.5" customHeight="1">
@@ -703,16 +730,16 @@
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="3" customFormat="1" ht="22.5" customHeight="1">
@@ -723,16 +750,16 @@
         <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:26" s="3" customFormat="1" ht="22.5" customHeight="1">
@@ -743,16 +770,16 @@
         <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="8" customFormat="1" ht="22.5" customHeight="1">
@@ -763,14 +790,14 @@
         <v>12</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:26" s="3" customFormat="1" ht="22.5" customHeight="1">
@@ -781,16 +808,16 @@
         <v>14</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="22.5" customHeight="1">
@@ -801,14 +828,14 @@
         <v>15</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="22.5" customHeight="1">
@@ -819,14 +846,14 @@
         <v>17</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="22.5" customHeight="1">
@@ -837,170 +864,201 @@
         <v>18</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="22.5" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="3" customFormat="1" ht="22.5" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:26" s="3" customFormat="1" ht="22.5" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="22.5" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="22.5" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="22.5" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="22.5" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F21" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="22.5" customHeight="1">
+      <c r="A22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="22.5" customHeight="1">
+      <c r="A23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="A24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="22.5" customHeight="1">
       <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
     </row>
     <row r="26" spans="1:6" ht="22.5" customHeight="1">
       <c r="A26" s="4"/>
